--- a/help/Lego Bins.xlsx
+++ b/help/Lego Bins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Projects\Fall-2024-Submerged\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFF6157-34AD-46EB-8591-B74E5051966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CCA4AD-086A-43E8-ABA5-5552AC22F1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{55A0E725-CE63-4012-BC5C-DADBFBA7559A}"/>
+    <workbookView xWindow="4740" yWindow="2685" windowWidth="32445" windowHeight="15375" firstSheet="11" activeTab="18" xr2:uid="{55A0E725-CE63-4012-BC5C-DADBFBA7559A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="17" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="14-Small Wheels" sheetId="15" r:id="rId15"/>
     <sheet name="15-Axle Holes PT (2)" sheetId="19" r:id="rId16"/>
     <sheet name="16-Various" sheetId="16" r:id="rId17"/>
+    <sheet name="Color Build Bins" sheetId="20" r:id="rId18"/>
+    <sheet name="Other Lego Bins" sheetId="21" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'10-Half Height'!$A$1:$K$9</definedName>
@@ -48,6 +50,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'7-Pin Hole (2)'!$A$1:$K$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'8-Axle Hole DE'!$A$1:$K$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'9-Axles, Special'!$A$1:$K$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'Color Build Bins'!$A$1:$A$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Table of Contents'!$A$1:$B$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="243">
   <si>
     <t>LEGO Axle 2 with Grooves (32062)</t>
   </si>
@@ -683,13 +686,145 @@
   </si>
   <si>
     <t>Axle Hole (Pass through) #1</t>
+  </si>
+  <si>
+    <t>Color Build Bins</t>
+  </si>
+  <si>
+    <t>Aqua/Magenta</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Dark Gray</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Light Gray</t>
+  </si>
+  <si>
+    <t>Lime Green</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>H-Pieces</t>
+  </si>
+  <si>
+    <t>Llamas</t>
+  </si>
+  <si>
+    <t>5X7 Frames</t>
+  </si>
+  <si>
+    <t>Large Wheels #1</t>
+  </si>
+  <si>
+    <t>Large Wheels #2</t>
+  </si>
+  <si>
+    <t>Waffles</t>
+  </si>
+  <si>
+    <t>Coach's Bin</t>
+  </si>
+  <si>
+    <t>Black pegs</t>
+  </si>
+  <si>
+    <t>Long blue pegs</t>
+  </si>
+  <si>
+    <t>Pins, Gears &amp; Connectors</t>
+  </si>
+  <si>
+    <t>Panels</t>
+  </si>
+  <si>
+    <t>Large Frames</t>
+  </si>
+  <si>
+    <t>Beams #1</t>
+  </si>
+  <si>
+    <t>Beams #2</t>
+  </si>
+  <si>
+    <t>Tank Treads</t>
+  </si>
+  <si>
+    <t>Turntable Gears</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +856,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1075,7 +1225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1186,6 +1336,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1219,6 +1370,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13475,10 +13627,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="38" t="s">
         <v>176</v>
       </c>
     </row>
@@ -13643,19 +13795,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -13709,23 +13861,23 @@
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="29"/>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="29"/>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
@@ -13779,19 +13931,19 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13833,19 +13985,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -13869,11 +14021,11 @@
         <v>101</v>
       </c>
       <c r="D3" s="29"/>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="29"/>
       <c r="I3" s="1" t="s">
         <v>103</v>
@@ -13897,19 +14049,19 @@
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="29"/>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="29"/>
       <c r="K5" s="1" t="s">
         <v>107</v>
@@ -13933,13 +14085,13 @@
         <v>108</v>
       </c>
       <c r="B7" s="29"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="29"/>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -13963,23 +14115,23 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="29"/>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14025,19 +14177,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -14053,21 +14205,21 @@
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
@@ -14083,19 +14235,19 @@
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
@@ -14111,21 +14263,21 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
@@ -14141,19 +14293,19 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -14199,19 +14351,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -14235,13 +14387,13 @@
         <v>136</v>
       </c>
       <c r="D3" s="29"/>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="29"/>
       <c r="K3" s="1" t="s">
         <v>135</v>
@@ -14261,19 +14413,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="29"/>
       <c r="K5" s="1" t="s">
         <v>129</v>
@@ -14293,17 +14445,17 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="29"/>
       <c r="I7" s="1" t="s">
         <v>141</v>
@@ -14327,17 +14479,17 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="29"/>
       <c r="I9" s="1" t="s">
         <v>130</v>
@@ -14391,19 +14543,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
@@ -14419,21 +14571,21 @@
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -14449,21 +14601,21 @@
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="29"/>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -14479,21 +14631,21 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
@@ -14576,19 +14728,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -14604,15 +14756,15 @@
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="12"/>
       <c r="I3" s="1" t="s">
         <v>154</v>
@@ -14636,17 +14788,17 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="27"/>
       <c r="K5" s="1" t="s">
         <v>157</v>
@@ -14666,15 +14818,15 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="27"/>
       <c r="I7" s="19" t="s">
         <v>159</v>
@@ -14698,21 +14850,21 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14756,19 +14908,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -14959,19 +15111,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -14991,19 +15143,19 @@
         <v>163</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="29"/>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -15023,13 +15175,13 @@
         <v>192</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="14"/>
       <c r="I5" s="1" t="s">
         <v>167</v>
@@ -15057,19 +15209,19 @@
         <v>169</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="29"/>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -15089,19 +15241,19 @@
         <v>172</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15120,6 +15272,231 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63321385-22F9-45A9-A518-8A9492160C44}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701EE3AB-E048-4E8B-9132-37A5990F3430}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E75F0A1-9264-42CE-BF9B-F92B6BE83009}">
   <sheetPr>
@@ -15128,7 +15505,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="A1:K9"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15147,19 +15524,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -15213,23 +15590,23 @@
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
@@ -15245,17 +15622,17 @@
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="14"/>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -15291,13 +15668,13 @@
         <v>11</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -15323,7 +15700,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="A1:K9"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15342,19 +15719,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -15386,11 +15763,11 @@
         <v>17</v>
       </c>
       <c r="H3" s="27"/>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -15456,13 +15833,13 @@
         <v>195</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
@@ -15478,17 +15855,17 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="9"/>
       <c r="I9" s="1" t="s">
         <v>195</v>
@@ -15540,19 +15917,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -15698,11 +16075,11 @@
         <v>11</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -15723,7 +16100,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -15743,19 +16120,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -15775,17 +16152,17 @@
         <v>46</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -15801,21 +16178,21 @@
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
@@ -15831,23 +16208,23 @@
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="26"/>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
@@ -15879,11 +16256,11 @@
         <v>57</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -15911,7 +16288,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="A1:K9"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15930,19 +16307,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -16115,7 +16492,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="A1:K9"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16134,19 +16511,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -16170,11 +16547,11 @@
         <v>43</v>
       </c>
       <c r="D3" s="26"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="27"/>
       <c r="I3" s="1" t="s">
         <v>75</v>
@@ -16274,11 +16651,11 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="14"/>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -16288,11 +16665,11 @@
         <v>84</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -16316,7 +16693,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="A1:K9"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16335,19 +16712,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -16443,11 +16820,11 @@
         <v>11</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="14"/>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -16483,11 +16860,11 @@
         <v>11</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="14"/>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -16536,19 +16913,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -16572,11 +16949,11 @@
         <v>62</v>
       </c>
       <c r="D3" s="29"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="27"/>
       <c r="I3" s="1" t="s">
         <v>38</v>
@@ -16600,11 +16977,11 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="27"/>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -16614,11 +16991,11 @@
         <v>87</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
@@ -16642,11 +17019,11 @@
         <v>69</v>
       </c>
       <c r="D7" s="29"/>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="27"/>
       <c r="I7" s="1" t="s">
         <v>89</v>
@@ -16670,23 +17047,23 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="29"/>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/help/Lego Bins.xlsx
+++ b/help/Lego Bins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Projects\Fall-2024-Submerged\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CCA4AD-086A-43E8-ABA5-5552AC22F1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5885F-91D7-4C8E-8E6D-A85B9BA13273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2685" windowWidth="32445" windowHeight="15375" firstSheet="11" activeTab="18" xr2:uid="{55A0E725-CE63-4012-BC5C-DADBFBA7559A}"/>
+    <workbookView xWindow="4740" yWindow="2685" windowWidth="32445" windowHeight="15375" xr2:uid="{55A0E725-CE63-4012-BC5C-DADBFBA7559A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="17" r:id="rId1"/>
@@ -74,26 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="243">
-  <si>
-    <t>LEGO Axle 2 with Grooves (32062)</t>
-  </si>
-  <si>
-    <t>LEGO Axle 3 (4519)</t>
-  </si>
-  <si>
-    <t>LEGO Axle 4 (3705)</t>
-  </si>
-  <si>
-    <t>LEGO Axle 5 (32073)</t>
-  </si>
-  <si>
-    <t>LEGO Axle 6 (3706)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-LEGO Axle 7 (44294)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="246">
   <si>
     <t>LEGO Axle 8 (3707)</t>
   </si>
@@ -125,12 +106,6 @@
     <t>LEGO Axle 1.5 with Perpendicular Axle Connector (6553)</t>
   </si>
   <si>
-    <t>LEGO Beam 2 with Axle Hole and Pin Hole (40147 / 74695)</t>
-  </si>
-  <si>
-    <t>LEGO Cross Block 90° 1 x 2 (Axle/Pin) (6536 / 40146)</t>
-  </si>
-  <si>
     <t>LEGO Technic Bush with Three Axles (57585)</t>
   </si>
   <si>
@@ -146,18 +121,12 @@
     <t>LEGO Cross Block with Four Pin Holes and Axle Hole (49491 / 98989)</t>
   </si>
   <si>
-    <t>LEGO Cross Block with Two Pinholes (32291 / 42163)</t>
-  </si>
-  <si>
     <t>LEGO Double Pin with Perpendicular Axlehole (32138 / 65098)</t>
   </si>
   <si>
     <t>LEGO Technic Through Axle Connector with Bushing (32039 / 42135)</t>
   </si>
   <si>
-    <t>LEGO Half Bushing (32123 / 42136)</t>
-  </si>
-  <si>
     <t>LEGO Beam 3 x 0.5 with Knob and Pin (33299 / 61408)</t>
   </si>
   <si>
@@ -167,25 +136,10 @@
     <t>LEGO Ring 7 x 7 with Axle Connectors (79851)</t>
   </si>
   <si>
-    <t>LEGO Bushing (6590 / 42798)</t>
-  </si>
-  <si>
     <t>LEGO Beam 1 x 2 x 3 Bent 90 Degrees Quarter Ellipse (71708)</t>
   </si>
   <si>
-    <t>LEGO Cross Block 1 x 3 (42003 / 42796)</t>
-  </si>
-  <si>
-    <t>LEGO Technic Cross Block 3 x 2 (Axle/Triple Pin) (42191 / 63869)</t>
-  </si>
-  <si>
-    <t>LEGO Cross Block 2 x 2 Split (Axle / Twin Pin) (41678)</t>
-  </si>
-  <si>
     <t>LEGO Cross Block 1 x 3 with Steering Knobs (32068 / 60558)</t>
-  </si>
-  <si>
-    <t>LEGO Cross Block 1 x 3 with Two Axle Holes (32184 / 42142)</t>
   </si>
   <si>
     <t>LEGO Beam 1 Hole with 2 Axles 180° (27940)</t>
@@ -207,45 +161,18 @@
     <t>LEGO Axle with Ball (2736 / 3985)</t>
   </si>
   <si>
-    <t>LEGO Axle to Pin Connector (3749 / 6562)</t>
-  </si>
-  <si>
     <t>LEGO Axle Pin 3 with Friction (11214)</t>
   </si>
   <si>
-    <t>LEGO Axle to Pin Connector with Friction (43093)</t>
-  </si>
-  <si>
     <t>LEGO Worm Gear + Shape Axle (4716)</t>
   </si>
   <si>
-    <t>LEGO Bevel Gear with 36 Teeth (32498)</t>
-  </si>
-  <si>
     <t>LEGO Bevel Gear Half with 12 Teeth (6589)</t>
   </si>
   <si>
     <t>LEGO Bevel Gear Half with 20 Teeth (32198)</t>
   </si>
   <si>
-    <t>LEGO Bevel Gear with 20 Teeth Unreinforced (32269)</t>
-  </si>
-  <si>
-    <t>LEGO Bevel Gear with 28 Teeth (46372)</t>
-  </si>
-  <si>
-    <t>LEGO Bevel Gear with 12 Teeth (32270)</t>
-  </si>
-  <si>
-    <t>LEGO Gear with 16 Teeth (Reinforced) (94925)</t>
-  </si>
-  <si>
-    <t>LEGO Gear with 40 Teeth (3649 / 34432)</t>
-  </si>
-  <si>
-    <t>LEGO Gear with 24 Teeth (3648 / 24505)</t>
-  </si>
-  <si>
     <t>LEGO Gear with 4 Knobs (32072 / 49135)</t>
   </si>
   <si>
@@ -261,9 +188,6 @@
     <t>LEGO Angle Connector #3 (157.5º) (32016 / 42128)</t>
   </si>
   <si>
-    <t>LEGO Beam 3 x 5 I Frame (14720)</t>
-  </si>
-  <si>
     <t>LEGO Beam 1 x 2 x 4 with Cross and Hole (80910)</t>
   </si>
   <si>
@@ -276,45 +200,21 @@
     <t>LEGO Beam 1 (18654)</t>
   </si>
   <si>
-    <t>LEGO Angle Connector #2 (180º) (32034 / 42134)</t>
-  </si>
-  <si>
     <t>LEGO Long Pin with Center Hole (44874 / 87082)</t>
   </si>
   <si>
-    <t>LEGO Cross Block Bent 90 Degrees with Three Pinholes (44809)</t>
-  </si>
-  <si>
     <t>LEGO Angle Connector #5 (112.5º) (32015 / 41488)</t>
   </si>
   <si>
     <t>LEGO Beam 3 with Pins (2393)</t>
   </si>
   <si>
-    <t>LEGO Beam 3 x 3 T-Shaped (60484)</t>
-  </si>
-  <si>
-    <t>LEGO Angle Connector #6 (90º) (32014 / 42155)</t>
-  </si>
-  <si>
-    <t>LEGO Angle Connector #1 (32013 / 42127)</t>
-  </si>
-  <si>
-    <t>LEGO Long Pin with Friction and Bushing (32054 / 65304)</t>
-  </si>
-  <si>
     <t>LEGO Technic Connector with Pin and Hole (15100 / 65487)</t>
   </si>
   <si>
     <t>LEGO Technic Connector with Hole and 2 Pins (15461 / 46189)</t>
   </si>
   <si>
-    <t>LEGO Technic Long Pin without Fricton (32556 / 39888)</t>
-  </si>
-  <si>
-    <t>LEGO Pin without Friction Ridges (3673)</t>
-  </si>
-  <si>
     <t>LEGO Pin with Ball (6628 / 66906)</t>
   </si>
   <si>
@@ -322,9 +222,6 @@
   </si>
   <si>
     <t>LEGO Pin with Ball (80477)</t>
-  </si>
-  <si>
-    <t>LEGO Half Pin with Stud (4274)</t>
   </si>
   <si>
     <t>LEGO Bar 7.6 with Stop with Rounded End (2714)</t>
@@ -349,9 +246,6 @@
     <t>LEGO Extension with Axle Holes (26287 / 42195)</t>
   </si>
   <si>
-    <t>LEGO Axle Connector (Smooth with 'x' Hole) (59443)</t>
-  </si>
-  <si>
     <t>Bin 1: Axles</t>
   </si>
   <si>
@@ -452,18 +346,6 @@
   </si>
   <si>
     <t>Bin12: Technic Bricks</t>
-  </si>
-  <si>
-    <t>LEGO Beam 3 x 3.8 x 7 Bent 45 Double (32009 / 41486)</t>
-  </si>
-  <si>
-    <t>LEGO Beam Bent 53 Degrees, 4 and 6 Holes (6629 / 42149)</t>
-  </si>
-  <si>
-    <t>LEGO Beam Bent 53 Degrees, 3 and 7 Holes (32271 / 42160)</t>
-  </si>
-  <si>
-    <t>LEGO Beam Bent 53 Degrees, 4 and 4 Holes (32348 / 42165)</t>
   </si>
   <si>
     <t>LEGO Brick 1 x 2 with Hole (3700) &amp;
@@ -664,9 +546,6 @@
     <t>Miscellaneous</t>
   </si>
   <si>
-    <t>LEGO Technic Connector Toggle Joint Smooth Double with 2 Pins (48496 / 65746)</t>
-  </si>
-  <si>
     <t>LEGO Gearbox for Worm Gear (6588 / 28698)</t>
   </si>
   <si>
@@ -818,6 +697,135 @@
   </si>
   <si>
     <t>Turntable Gears</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Beams #3</t>
+  </si>
+  <si>
+    <t>LEGO Axle 2 with Grooves (32062) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Axle 3 (4519) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Axle 4 (3705) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Axle 5 (32073) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Axle 6 (3706) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Axle 7 (44294) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Beam 2 with Axle Hole and Pin Hole (40147 / 74695) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Cross Block 90° 1 x 2 (Axle/Pin) (6536 / 40146) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Cross Block 2 x 2 Split (Axle / Twin Pin) (41678) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Half Bushing (32123 / 42136) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Bushing (6590 / 42798) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Cross Block 1 x 3 with Two Axle Holes (32184 / 42142) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Technic Cross Block 3 x 2 (Axle/Triple Pin) (42191 / 63869) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Cross Block 1 x 3 (42003 / 42796) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Axle to Pin Connector (3749 / 6562) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Axle to Pin Connector with Friction (43093) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Axle 2L with Friction Pin (18651) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Bevel Gear with 36 Teeth (32498) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Bevel Gear with 20 Teeth Unreinforced (32269) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Gear with 40 Teeth (3649 / 34432) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Bevel Gear with 28 Teeth (46372) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Gear with 24 Teeth (3648 / 24505) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Bevel Gear with 12 Teeth (32270) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Gear with 16 Teeth (Reinforced) (94925) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Angle Connector #2 (180º) (32034 / 42134) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Angle Connector #6 (90º) (32014 / 42155) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Angle Connector #1 (32013 / 42127) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Beam 3 x 3 T-Shaped (60484) [Q]</t>
+  </si>
+  <si>
+    <t>LEGO Cross Block Bent 90 Degrees with Three Pinholes (44809) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Beam 3 x 5 I Frame (14720) [Q]</t>
+  </si>
+  <si>
+    <t>LEGO Long Pin with Friction and Bushing (32054 / 65304) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Technic Long Pin without Fricton (32556 / 39888) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Pin without Friction Ridges (3673) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Half Pin with Stud (4274) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Technic Connector Toggle Joint Smooth Double with 2 Pins (48496 / 65746) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Cross Block with Two Pinholes (32291 / 42163) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Axle Connector (Smooth with 'x' Hole) (59443) [G]</t>
+  </si>
+  <si>
+    <t>LEGO Beam 3 x 3.8 x 7 Bent 45 Double (32009 / 41486) [Q]</t>
+  </si>
+  <si>
+    <t>LEGO Beam Bent 53 Degrees, 3 and 7 Holes (32271 / 42160) [Q]</t>
+  </si>
+  <si>
+    <t>LEGO Beam Bent 53 Degrees, 4 and 4 Holes (32348 / 42165) [Q]</t>
+  </si>
+  <si>
+    <t>LEGO Beam Bent 53 Degrees, 4 and 6 Holes (6629 / 42149) [Q]</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1337,6 +1345,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1370,7 +1379,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2447,13 +2465,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>790840</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2095765</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1314607</xdr:rowOff>
     </xdr:to>
@@ -2479,7 +2497,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343025" y="2752725"/>
+          <a:off x="200025" y="2847975"/>
           <a:ext cx="1895740" cy="1124107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2536,14 +2554,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1685926</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1562101</xdr:colOff>
+      <xdr:colOff>447676</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1305620</xdr:rowOff>
     </xdr:to>
@@ -2569,7 +2587,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7324726" y="2800350"/>
+          <a:off x="6381751" y="2895600"/>
           <a:ext cx="1009650" cy="1067495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2626,69 +2644,69 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>261820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1950935</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1238250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDD8B46-F147-0B8C-6D39-B271BC2B9817}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="352425" y="4195645"/>
-          <a:ext cx="1598510" cy="976430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
+      <xdr:colOff>1533526</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1752601</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1281206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="13" name="Picture 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E395CAC-0881-9FDF-325E-3F639EED416A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229351" y="4362450"/>
+          <a:ext cx="1238250" cy="995456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236706</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>367655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1867162</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1352550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E395CAC-0881-9FDF-325E-3F639EED416A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B55B72-8B2A-D6C7-4352-ECBB2E29C335}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2704,97 +2722,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095876" y="4219575"/>
-          <a:ext cx="1238250" cy="995456"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>798892</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>609599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1343232</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1314450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB11F6C8-5886-807B-94AB-9E6365B32ABA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11952667" y="4543424"/>
-          <a:ext cx="544340" cy="704851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1379706</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>272405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>562237</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1257300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B55B72-8B2A-D6C7-4352-ECBB2E29C335}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1379706" y="5577830"/>
+          <a:off x="236706" y="5863580"/>
           <a:ext cx="1630456" cy="984895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2815,7 +2743,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="Picture 16">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA86A98-47C5-4725-B789-DFF2EC81D741}"/>
@@ -2827,7 +2755,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2836,6 +2764,86 @@
         <a:xfrm>
           <a:off x="10677525" y="5476014"/>
           <a:ext cx="1152526" cy="1106192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>798892</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>609599</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="544340" cy="704851"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458F2E88-5709-40E3-B334-CF1C710044FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12238417" y="4686299"/>
+          <a:ext cx="544340" cy="704851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>261820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1598510" cy="976430"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB0FA81-0FF3-4C15-BCEF-53A7F952C3D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="4338520"/>
+          <a:ext cx="1598510" cy="976430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9318,13 +9326,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>540229</xdr:colOff>
+      <xdr:colOff>540230</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>457199</xdr:rowOff>
+      <xdr:rowOff>514350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:colOff>1478352</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1343024</xdr:rowOff>
     </xdr:to>
@@ -9357,8 +9365,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5121754" y="3200399"/>
-          <a:ext cx="1002821" cy="885825"/>
+          <a:off x="5236055" y="4591050"/>
+          <a:ext cx="938122" cy="828674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9566,13 +9574,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>459105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1650341</xdr:colOff>
+      <xdr:colOff>1533525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1266825</xdr:rowOff>
     </xdr:to>
@@ -9605,8 +9613,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2876550" y="4352925"/>
-          <a:ext cx="1164566" cy="1028700"/>
+          <a:off x="3067050" y="5955030"/>
+          <a:ext cx="914400" cy="807720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11104,15 +11112,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>714375</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
+      <xdr:rowOff>409575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1496324</xdr:colOff>
+      <xdr:colOff>1620149</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1133475</xdr:rowOff>
+      <xdr:rowOff>1209675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11143,7 +11151,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="590550" y="333375"/>
+          <a:off x="714375" y="1647825"/>
           <a:ext cx="905774" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13618,7 +13626,7 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13628,10 +13636,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13639,7 +13647,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13647,7 +13655,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13655,7 +13663,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13663,7 +13671,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13671,7 +13679,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13679,7 +13687,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13687,7 +13695,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13695,7 +13703,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13703,7 +13711,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13711,7 +13719,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13719,7 +13727,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13727,7 +13735,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13735,7 +13743,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13743,7 +13751,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13751,7 +13759,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24" x14ac:dyDescent="0.4">
@@ -13759,7 +13767,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -13795,19 +13803,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -13824,27 +13832,27 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="1" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13861,23 +13869,23 @@
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="A5" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="29"/>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F5" s="29"/>
-      <c r="G5" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="G5" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
@@ -13894,27 +13902,27 @@
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13931,19 +13939,19 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="A9" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13963,9 +13971,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -13985,19 +13993,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -14014,100 +14022,102 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="D3" s="29"/>
-      <c r="E3" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="E3" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="29"/>
       <c r="I3" s="1" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="A5" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" s="29"/>
-      <c r="E5" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="E5" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="J5" s="29"/>
       <c r="K5" s="1" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="B7" s="29"/>
-      <c r="C7" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="29"/>
       <c r="K7" s="1" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -14115,34 +14125,39 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="A9" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="29"/>
-      <c r="E9" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="I9" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="54"/>
+      <c r="F10" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:G9"/>
+  <mergeCells count="5">
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="C7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -14177,19 +14192,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -14205,21 +14220,21 @@
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="A3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
@@ -14235,19 +14250,19 @@
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="A5" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
@@ -14263,21 +14278,21 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="A7" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
+      <c r="G7" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
@@ -14293,19 +14308,19 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
+      <c r="A9" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -14351,19 +14366,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -14380,23 +14395,23 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="D3" s="29"/>
-      <c r="E3" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="E3" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="29"/>
       <c r="K3" s="1" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14413,22 +14428,22 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="G5" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="29"/>
       <c r="K5" s="1" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14445,24 +14460,24 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="A7" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="E7" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="29"/>
       <c r="I7" s="1" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="1" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14479,24 +14494,24 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="A9" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="E9" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="29"/>
       <c r="I9" s="1" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="J9" s="29"/>
       <c r="K9" s="1" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -14543,19 +14558,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
@@ -14571,21 +14586,21 @@
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="A3" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
+      <c r="G3" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -14601,21 +14616,21 @@
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
+      <c r="A5" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="29"/>
-      <c r="E5" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="E5" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -14631,21 +14646,21 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="A7" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="G7" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
@@ -14662,27 +14677,27 @@
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J9" s="29"/>
       <c r="K9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -14728,19 +14743,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="A1" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -14756,22 +14771,22 @@
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="A3" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="12"/>
       <c r="I3" s="1" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="1" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14788,20 +14803,20 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
+      <c r="A5" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="27"/>
       <c r="K5" s="1" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14818,22 +14833,22 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="A7" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="27"/>
       <c r="I7" s="19" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="1" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -14850,21 +14865,21 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="A9" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="G9" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14889,7 +14904,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14908,19 +14923,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="A1" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -14937,27 +14952,27 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="6" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="6" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14975,27 +14990,27 @@
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="19" t="s">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="6" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="6" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -15013,27 +15028,27 @@
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="6" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15051,27 +15066,27 @@
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -15111,19 +15126,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -15140,22 +15155,22 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="C3" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="29"/>
-      <c r="I3" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="I3" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -15172,23 +15187,23 @@
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="14"/>
       <c r="I5" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="1" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15206,22 +15221,22 @@
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="C7" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="29"/>
-      <c r="I7" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="I7" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -15238,22 +15253,22 @@
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="C9" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="G9" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15288,62 +15303,62 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -15354,9 +15369,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701EE3AB-E048-4E8B-9132-37A5990F3430}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15365,131 +15380,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>227</v>
+      <c r="A1" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>228</v>
+      <c r="A2" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>229</v>
+      <c r="A3" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>230</v>
+      <c r="A4" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>231</v>
+      <c r="A5" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>232</v>
+      <c r="A6" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>236</v>
+      <c r="A7" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>233</v>
+      <c r="A8" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>239</v>
+      <c r="A9" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>234</v>
+      <c r="A10" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>235</v>
+      <c r="A11" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>237</v>
+      <c r="A12" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>238</v>
+      <c r="A13" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>240</v>
+      <c r="A14" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>241</v>
+      <c r="A15" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>242</v>
+      <c r="A16" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -15524,19 +15547,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -15553,27 +15576,27 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="17" t="s">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="17" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="17" t="s">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="17" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="J3" s="37"/>
       <c r="K3" s="18" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -15590,23 +15613,23 @@
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="A5" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="E5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="I5" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
@@ -15622,24 +15645,24 @@
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="A7" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="E7" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="14"/>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15657,24 +15680,24 @@
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="G9" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -15700,7 +15723,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15719,19 +15742,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -15748,26 +15771,26 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="19" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="19" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="H3" s="27"/>
-      <c r="I3" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="I3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -15784,27 +15807,27 @@
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="D5" s="29"/>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
+      <c r="E5" s="19" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="19" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15822,24 +15845,24 @@
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
+      <c r="G7" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
@@ -15855,24 +15878,24 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="E9" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="9"/>
       <c r="I9" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="J9" s="29"/>
       <c r="K9" s="19" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -15898,7 +15921,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="A1:K9"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15917,19 +15940,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -15946,27 +15969,27 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15984,27 +16007,27 @@
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="19" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16022,27 +16045,27 @@
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="19" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16060,26 +16083,26 @@
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
+      <c r="I9" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -16101,7 +16124,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16120,19 +16143,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -16149,20 +16172,20 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="C3" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -16178,21 +16201,21 @@
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="G5" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
@@ -16208,23 +16231,23 @@
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
+      <c r="A7" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="26"/>
-      <c r="E7" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="E7" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
+      <c r="I7" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
@@ -16241,26 +16264,26 @@
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="34" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="19" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+      <c r="I9" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -16307,19 +16330,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -16336,27 +16359,27 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="19" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16374,27 +16397,27 @@
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16412,27 +16435,27 @@
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="19" t="s">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16450,27 +16473,27 @@
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="19" t="s">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="19" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="19" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="19" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -16489,10 +16512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="I9" sqref="I9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16510,22 +16533,22 @@
     <col min="11" max="11" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-    </row>
-    <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -16538,30 +16561,30 @@
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="19" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="D3" s="26"/>
-      <c r="E3" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="E3" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="27"/>
       <c r="I3" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="29"/>
       <c r="C4" s="27"/>
@@ -16574,32 +16597,32 @@
       <c r="J4" s="29"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="19" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="19" t="s">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -16612,32 +16635,33 @@
       <c r="J6" s="27"/>
       <c r="K6" s="29"/>
     </row>
-    <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="19" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="J7" s="27"/>
-      <c r="K7" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="29"/>
       <c r="C8" s="13"/>
@@ -16650,28 +16674,28 @@
       <c r="J8" s="27"/>
       <c r="K8" s="29"/>
     </row>
-    <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+    <row r="9" spans="1:15" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="14"/>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="I9" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E3:G3"/>
@@ -16712,19 +16736,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -16741,33 +16765,33 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="B3" s="27"/>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
+      <c r="C3" s="19" t="s">
+        <v>213</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="19" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="19" t="s">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="19" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="13"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="29"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -16779,27 +16803,27 @@
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16817,68 +16841,64 @@
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="C7" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="14"/>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="13"/>
       <c r="H8" s="29"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="29"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C9" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="7"/>
       <c r="K9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -16894,7 +16914,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="A1:K9"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16913,19 +16933,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -16942,25 +16962,25 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D3" s="29"/>
-      <c r="E3" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="E3" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="27"/>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16977,25 +16997,25 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="27"/>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="I5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
@@ -17012,25 +17032,25 @@
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D7" s="29"/>
-      <c r="E7" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="E7" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="27"/>
       <c r="I7" s="1" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17047,23 +17067,23 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="E9" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="29"/>
-      <c r="I9" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
+      <c r="I9" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/help/Lego Bins.xlsx
+++ b/help/Lego Bins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Projects\Fall-2024-Submerged\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5885F-91D7-4C8E-8E6D-A85B9BA13273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5329F7F7-7DCC-4213-80E2-C19679D1B838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2685" windowWidth="32445" windowHeight="15375" xr2:uid="{55A0E725-CE63-4012-BC5C-DADBFBA7559A}"/>
+    <workbookView xWindow="4740" yWindow="2685" windowWidth="32445" windowHeight="15375" firstSheet="11" activeTab="18" xr2:uid="{55A0E725-CE63-4012-BC5C-DADBFBA7559A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="17" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="248">
   <si>
     <t>LEGO Axle 8 (3707)</t>
   </si>
@@ -678,21 +678,12 @@
     <t>Long blue pegs</t>
   </si>
   <si>
-    <t>Pins, Gears &amp; Connectors</t>
-  </si>
-  <si>
     <t>Panels</t>
   </si>
   <si>
     <t>Large Frames</t>
   </si>
   <si>
-    <t>Beams #1</t>
-  </si>
-  <si>
-    <t>Beams #2</t>
-  </si>
-  <si>
     <t>Tank Treads</t>
   </si>
   <si>
@@ -702,9 +693,6 @@
     <t>Q</t>
   </si>
   <si>
-    <t>Beams #3</t>
-  </si>
-  <si>
     <t>LEGO Axle 2 with Grooves (32062) [G]</t>
   </si>
   <si>
@@ -826,6 +814,24 @@
   </si>
   <si>
     <t>LEGO Beam Bent 53 Degrees, 4 and 6 Holes (6629 / 42149) [Q]</t>
+  </si>
+  <si>
+    <t>Beams #1 (spares)</t>
+  </si>
+  <si>
+    <t>Pins, Gears &amp; Connectors (spares)</t>
+  </si>
+  <si>
+    <t>Beams #2 (spares)</t>
+  </si>
+  <si>
+    <t>Beams #3 (spares)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Rubber Bands</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1347,6 +1353,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1379,16 +1391,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13626,7 +13628,7 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13772,7 +13774,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13803,19 +13805,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -13869,23 +13871,23 @@
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="29"/>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="29"/>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
@@ -13939,19 +13941,19 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13971,7 +13973,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:K1"/>
@@ -13993,19 +13995,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -14029,11 +14031,11 @@
         <v>66</v>
       </c>
       <c r="D3" s="29"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="29"/>
       <c r="I3" s="1" t="s">
         <v>68</v>
@@ -14045,31 +14047,31 @@
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
-      <c r="B4" s="52"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="52"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D5" s="29"/>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="7"/>
       <c r="I5" s="1" t="s">
         <v>76</v>
@@ -14081,13 +14083,13 @@
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
-      <c r="B6" s="52"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="52"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
@@ -14097,15 +14099,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="29"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="29"/>
       <c r="K7" s="1" t="s">
         <v>5</v>
@@ -14113,11 +14115,11 @@
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
-      <c r="F8" s="52"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -14125,10 +14127,10 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -14136,20 +14138,16 @@
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="53"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14192,19 +14190,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -14220,21 +14218,21 @@
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
@@ -14250,19 +14248,19 @@
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="A5" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
@@ -14278,21 +14276,21 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="A7" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
+      <c r="G7" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
@@ -14308,19 +14306,19 @@
       <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
+      <c r="A9" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -14366,19 +14364,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -14402,13 +14400,13 @@
         <v>97</v>
       </c>
       <c r="D3" s="29"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="29"/>
       <c r="K3" s="1" t="s">
         <v>96</v>
@@ -14428,19 +14426,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="29"/>
       <c r="K5" s="1" t="s">
         <v>90</v>
@@ -14460,17 +14458,17 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="29"/>
       <c r="I7" s="1" t="s">
         <v>102</v>
@@ -14494,17 +14492,17 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="29"/>
       <c r="I9" s="1" t="s">
         <v>91</v>
@@ -14558,19 +14556,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
@@ -14586,21 +14584,21 @@
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -14616,21 +14614,21 @@
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="29"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -14646,21 +14644,21 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
@@ -14743,19 +14741,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -14771,15 +14769,15 @@
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="12"/>
       <c r="I3" s="1" t="s">
         <v>115</v>
@@ -14803,17 +14801,17 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="27"/>
       <c r="K5" s="1" t="s">
         <v>118</v>
@@ -14833,15 +14831,15 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="27"/>
       <c r="I7" s="19" t="s">
         <v>120</v>
@@ -14865,21 +14863,21 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14923,19 +14921,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -14998,7 +14996,7 @@
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="1" t="s">
@@ -15126,19 +15124,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -15158,19 +15156,19 @@
         <v>124</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="29"/>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -15190,13 +15188,13 @@
         <v>152</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="14"/>
       <c r="I5" s="1" t="s">
         <v>128</v>
@@ -15224,19 +15222,19 @@
         <v>130</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="29"/>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -15256,19 +15254,19 @@
         <v>133</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15369,9 +15367,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701EE3AB-E048-4E8B-9132-37A5990F3430}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15432,7 +15432,7 @@
         <v>177</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
@@ -15448,7 +15448,7 @@
         <v>179</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
@@ -15472,7 +15472,7 @@
         <v>182</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
@@ -15480,7 +15480,7 @@
         <v>183</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
@@ -15488,7 +15488,7 @@
         <v>184</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
@@ -15496,7 +15496,7 @@
         <v>185</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
@@ -15504,19 +15504,28 @@
         <v>186</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A17" s="39" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>204</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A18" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15547,19 +15556,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -15576,27 +15585,27 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J3" s="37"/>
       <c r="K3" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -15613,23 +15622,23 @@
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
@@ -15645,17 +15654,17 @@
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="14"/>
       <c r="I7" s="1" t="s">
         <v>5</v>
@@ -15691,13 +15700,13 @@
         <v>5</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -15742,19 +15751,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -15779,18 +15788,18 @@
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H3" s="27"/>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -15815,7 +15824,7 @@
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="1" t="s">
@@ -15827,7 +15836,7 @@
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15856,13 +15865,13 @@
         <v>155</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
+      <c r="G7" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
@@ -15878,24 +15887,24 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
+      <c r="E9" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="9"/>
       <c r="I9" s="1" t="s">
         <v>155</v>
       </c>
       <c r="J9" s="29"/>
       <c r="K9" s="19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -15940,19 +15949,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -16027,7 +16036,7 @@
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16049,7 +16058,7 @@
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="1" t="s">
@@ -16098,11 +16107,11 @@
         <v>5</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
+      <c r="I9" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -16143,19 +16152,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -16175,17 +16184,17 @@
         <v>29</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="C3" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -16201,21 +16210,21 @@
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="G5" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
@@ -16231,23 +16240,23 @@
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="26"/>
-      <c r="E7" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="E7" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
+      <c r="I7" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
@@ -16272,18 +16281,18 @@
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="I9" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -16330,19 +16339,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -16367,7 +16376,7 @@
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="1" t="s">
@@ -16397,7 +16406,7 @@
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="1" t="s">
@@ -16435,7 +16444,7 @@
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="1" t="s">
@@ -16443,7 +16452,7 @@
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="1" t="s">
@@ -16477,7 +16486,7 @@
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="1" t="s">
@@ -16485,15 +16494,15 @@
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -16534,19 +16543,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -16567,14 +16576,14 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D3" s="26"/>
-      <c r="E3" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
+      <c r="E3" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="27"/>
       <c r="I3" s="1" t="s">
         <v>44</v>
@@ -16611,11 +16620,11 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="19" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="1" t="s">
@@ -16653,11 +16662,11 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O7" s="1"/>
     </row>
@@ -16675,11 +16684,11 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:15" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="14"/>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -16689,11 +16698,11 @@
         <v>50</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
+      <c r="I9" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -16736,19 +16745,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -16765,23 +16774,23 @@
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="1" t="s">
@@ -16791,7 +16800,7 @@
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="52"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -16844,11 +16853,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="14"/>
       <c r="G7" s="1" t="s">
         <v>5</v>
@@ -16865,7 +16874,7 @@
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="52"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -16880,15 +16889,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="7"/>
       <c r="K9" s="1" t="s">
         <v>5</v>
@@ -16933,19 +16942,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -16969,11 +16978,11 @@
         <v>37</v>
       </c>
       <c r="D3" s="29"/>
-      <c r="E3" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
+      <c r="E3" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="27"/>
       <c r="I3" s="1" t="s">
         <v>23</v>
@@ -16997,11 +17006,11 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
+      <c r="A5" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="27"/>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -17011,11 +17020,11 @@
         <v>53</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
@@ -17039,11 +17048,11 @@
         <v>42</v>
       </c>
       <c r="D7" s="29"/>
-      <c r="E7" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="E7" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="27"/>
       <c r="I7" s="1" t="s">
         <v>55</v>
@@ -17067,23 +17076,23 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="29"/>
-      <c r="I9" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
+      <c r="I9" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/help/Lego Bins.xlsx
+++ b/help/Lego Bins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Projects\Fall-2024-Submerged\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2128C962-95A1-4705-BB6F-3AFDB8736690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC4EC1-D139-4B1D-AFD1-818B4561C7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="2685" windowWidth="32445" windowHeight="15375" xr2:uid="{55A0E725-CE63-4012-BC5C-DADBFBA7559A}"/>
   </bookViews>
@@ -13942,7 +13942,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="97" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -13955,9 +13955,7 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14132,7 +14130,7 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A9:K9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14145,9 +14143,7 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14327,7 +14323,7 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="C7:I7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14340,9 +14336,7 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14504,7 +14498,7 @@
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="G7:K7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14517,9 +14511,7 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14700,7 +14692,7 @@
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="A5:E5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14713,9 +14705,7 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14887,7 +14877,7 @@
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="A3:E3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14900,9 +14890,7 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15071,7 +15059,7 @@
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A5:I5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15084,9 +15072,7 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15277,7 +15263,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15290,9 +15276,7 @@
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15468,7 +15452,7 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="I7:K7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15481,7 +15465,7 @@
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15549,7 +15533,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
@@ -15561,7 +15545,7 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15722,7 +15706,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
@@ -15734,9 +15718,7 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15916,7 +15898,7 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="E7:G7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15929,9 +15911,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16114,7 +16094,7 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="G7:K7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -16127,9 +16107,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" activeCellId="3" sqref="A3 A5 A7 A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16317,7 +16295,7 @@
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -16330,9 +16308,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16504,7 +16480,7 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -16517,9 +16493,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16708,7 +16682,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -16721,9 +16695,7 @@
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16910,7 +16882,7 @@
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A9:C9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -16923,9 +16895,7 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17106,7 +17076,7 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="A5:C5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17119,9 +17089,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17303,7 +17271,7 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="I9:K9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/help/Lego Bins.xlsx
+++ b/help/Lego Bins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Projects\Fall-2024-Submerged\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC4EC1-D139-4B1D-AFD1-818B4561C7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BA373B-A009-42B9-90B1-B47238AFC620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2685" windowWidth="32445" windowHeight="15375" xr2:uid="{55A0E725-CE63-4012-BC5C-DADBFBA7559A}"/>
+    <workbookView xWindow="4740" yWindow="2685" windowWidth="32445" windowHeight="15375" firstSheet="9" activeTab="17" xr2:uid="{55A0E725-CE63-4012-BC5C-DADBFBA7559A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="17" r:id="rId1"/>
@@ -30,8 +30,9 @@
     <sheet name="14-Small Wheels" sheetId="15" r:id="rId15"/>
     <sheet name="15-Axle Holes PT (2)" sheetId="19" r:id="rId16"/>
     <sheet name="16-Various" sheetId="16" r:id="rId17"/>
-    <sheet name="Color Build Bins" sheetId="20" r:id="rId18"/>
-    <sheet name="Other Lego Bins" sheetId="21" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId18"/>
+    <sheet name="Color Build Bins" sheetId="20" r:id="rId19"/>
+    <sheet name="Other Lego Bins" sheetId="21" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'10-Half Height'!$A$1:$K$9</definedName>
@@ -50,7 +51,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'7-Pin Hole (2)'!$A$1:$K$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'8-Axle Hole DE'!$A$1:$K$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'9-Axles, Special'!$A$1:$K$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">'Color Build Bins'!$A$1:$A$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'Color Build Bins'!$A$1:$A$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Table of Contents'!$A$1:$J$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="437">
   <si>
     <t>LEGO Axle 8 (3707)</t>
   </si>
@@ -835,6 +836,570 @@
   </si>
   <si>
     <t>Beams #1 (white and gray)</t>
+  </si>
+  <si>
+    <t>LEGO Output Shaft for Constant Velocity Joint (92906) &amp;</t>
+  </si>
+  <si>
+    <t>LEGO Input Shaft for Constant Velocity Joint (19991 / 32494)</t>
+  </si>
+  <si>
+    <t>LEGO Beam 7 x 0.5 Thin (32065 / 58486</t>
+  </si>
+  <si>
+    <t>LEGO Technic Brick Wing 1 x 6 x 1.67 (2744 / 28670) &amp;</t>
+  </si>
+  <si>
+    <t>LEGO Brick 4 x 6 with Open Center 2 x 4 (32531 / 40344)</t>
+  </si>
+  <si>
+    <t>LEGO Brick 1 x 2 with Hole (3700) &amp;</t>
+  </si>
+  <si>
+    <t>LEGO Brick 1 x 1 with Hole (6541)</t>
+  </si>
+  <si>
+    <t>LEGO Brick 2 x 2 with Ball Joint Socket (67696) &amp;</t>
+  </si>
+  <si>
+    <t>LEGO Brick 2 x 2 with Two Ball Joints with Holes in Ball and axle hole (17114)</t>
+  </si>
+  <si>
+    <t>LEGO Wheel Rim Ø18 x 14 with Pin Hole with Tire 30.4 x 14 with Offset Tread Pattern and No band (55981) &amp;</t>
+  </si>
+  <si>
+    <t>LEGO Wheel Rim Ø18 x 14 with Pin Hole (20896 / 55981) &amp;</t>
+  </si>
+  <si>
+    <t>LEGO Tire Ø30.4 x 14 with Offset Tread and No band (30391)</t>
+  </si>
+  <si>
+    <t>LEGO Wheel Rim Ø18 x 7 (56903) &amp;</t>
+  </si>
+  <si>
+    <t>LEGO Tire Ø24 x 7 Narrow (61254)</t>
+  </si>
+  <si>
+    <t>LEGO Beam 3 x 5 with Ball Cup (39370) &amp;</t>
+  </si>
+  <si>
+    <t>LEGO Technic Ball Pivot Parts Pack Set 992185 &amp;</t>
+  </si>
+  <si>
+    <t>LEGO Dia. 19 Wheel Ball (52629)</t>
+  </si>
+  <si>
+    <t>LEGO Worm Gear with Axle Hole (73763) &amp;</t>
+  </si>
+  <si>
+    <t>LEGO Brick 2 x 2 x 1.3 with Worm Gear Screw Hole (73764)</t>
+  </si>
+  <si>
+    <t>LEGO Linear Actuator 10-15 (61927) &amp;</t>
+  </si>
+  <si>
+    <t>LEGO Linear Actuator 7-9 (37774 / 92693) &amp;</t>
+  </si>
+  <si>
+    <t>LEGO Technic Power Functions Linear Actuator Bracket Hinged Mount (61904 / 65767) &amp;</t>
+  </si>
+  <si>
+    <t>LEGO Large Shock Absorber with Soft Spring (18404 / 74741)</t>
+  </si>
+  <si>
+    <t>32062</t>
+  </si>
+  <si>
+    <t>4519</t>
+  </si>
+  <si>
+    <t>3705</t>
+  </si>
+  <si>
+    <t>32073</t>
+  </si>
+  <si>
+    <t>3706</t>
+  </si>
+  <si>
+    <t>44294</t>
+  </si>
+  <si>
+    <t>3707</t>
+  </si>
+  <si>
+    <t>60485</t>
+  </si>
+  <si>
+    <t>3737</t>
+  </si>
+  <si>
+    <t>3708</t>
+  </si>
+  <si>
+    <t>99008</t>
+  </si>
+  <si>
+    <t>50451 / 69732</t>
+  </si>
+  <si>
+    <t>40147 / 74695</t>
+  </si>
+  <si>
+    <t>49283</t>
+  </si>
+  <si>
+    <t>32039 / 42135</t>
+  </si>
+  <si>
+    <t>32123 / 42136</t>
+  </si>
+  <si>
+    <t>45590</t>
+  </si>
+  <si>
+    <t>6590 / 42798</t>
+  </si>
+  <si>
+    <t>42003 / 42796</t>
+  </si>
+  <si>
+    <t>32184 / 42142</t>
+  </si>
+  <si>
+    <t>27940</t>
+  </si>
+  <si>
+    <t>92906</t>
+  </si>
+  <si>
+    <t>19991 / 32494</t>
+  </si>
+  <si>
+    <t>6553</t>
+  </si>
+  <si>
+    <t>22961</t>
+  </si>
+  <si>
+    <t>57585</t>
+  </si>
+  <si>
+    <t>10197</t>
+  </si>
+  <si>
+    <t>18651</t>
+  </si>
+  <si>
+    <t>2736 / 3985</t>
+  </si>
+  <si>
+    <t>3749 / 6562</t>
+  </si>
+  <si>
+    <t>11214</t>
+  </si>
+  <si>
+    <t>43093</t>
+  </si>
+  <si>
+    <t>4716</t>
+  </si>
+  <si>
+    <t>32498</t>
+  </si>
+  <si>
+    <t>32072 / 49135</t>
+  </si>
+  <si>
+    <t>32269</t>
+  </si>
+  <si>
+    <t>46372</t>
+  </si>
+  <si>
+    <t>3648 / 24505</t>
+  </si>
+  <si>
+    <t>6589</t>
+  </si>
+  <si>
+    <t>32198</t>
+  </si>
+  <si>
+    <t>10928</t>
+  </si>
+  <si>
+    <t>32270</t>
+  </si>
+  <si>
+    <t>67139</t>
+  </si>
+  <si>
+    <t>14720</t>
+  </si>
+  <si>
+    <t>80910</t>
+  </si>
+  <si>
+    <t>49491 / 98989</t>
+  </si>
+  <si>
+    <t>43857</t>
+  </si>
+  <si>
+    <t>80286</t>
+  </si>
+  <si>
+    <t>32068 / 60558</t>
+  </si>
+  <si>
+    <t>18654</t>
+  </si>
+  <si>
+    <t>44874 / 87082</t>
+  </si>
+  <si>
+    <t>44809</t>
+  </si>
+  <si>
+    <t>32557</t>
+  </si>
+  <si>
+    <t>2393</t>
+  </si>
+  <si>
+    <t>60484</t>
+  </si>
+  <si>
+    <t>32013 / 42127</t>
+  </si>
+  <si>
+    <t>33299 / 61408</t>
+  </si>
+  <si>
+    <t>32054 / 65304</t>
+  </si>
+  <si>
+    <t>15100 / 65487</t>
+  </si>
+  <si>
+    <t>2714</t>
+  </si>
+  <si>
+    <t>15461 / 46189</t>
+  </si>
+  <si>
+    <t>32556 / 39888</t>
+  </si>
+  <si>
+    <t>3673</t>
+  </si>
+  <si>
+    <t>32138 / 65098</t>
+  </si>
+  <si>
+    <t>6628 / 66906</t>
+  </si>
+  <si>
+    <t>77765</t>
+  </si>
+  <si>
+    <t>80477</t>
+  </si>
+  <si>
+    <t>4274</t>
+  </si>
+  <si>
+    <t>48496 / 65746</t>
+  </si>
+  <si>
+    <t>32002</t>
+  </si>
+  <si>
+    <t>32291 / 42163</t>
+  </si>
+  <si>
+    <t>29219 / 62462</t>
+  </si>
+  <si>
+    <t>49137 / 87408</t>
+  </si>
+  <si>
+    <t>9244</t>
+  </si>
+  <si>
+    <t>25214</t>
+  </si>
+  <si>
+    <t>26287 / 42195</t>
+  </si>
+  <si>
+    <t>18384 / 32474</t>
+  </si>
+  <si>
+    <t>15462</t>
+  </si>
+  <si>
+    <t>32209 / 59426</t>
+  </si>
+  <si>
+    <t>6587 / 13670</t>
+  </si>
+  <si>
+    <t>55013</t>
+  </si>
+  <si>
+    <t>87083</t>
+  </si>
+  <si>
+    <t>24316</t>
+  </si>
+  <si>
+    <t>13927 / 50450</t>
+  </si>
+  <si>
+    <t>41677 / 44862</t>
+  </si>
+  <si>
+    <t>6632 / 65123</t>
+  </si>
+  <si>
+    <t>32449 / 63782</t>
+  </si>
+  <si>
+    <t>32017</t>
+  </si>
+  <si>
+    <t>28570 / 32063</t>
+  </si>
+  <si>
+    <t>2825 / 32006</t>
+  </si>
+  <si>
+    <t>32251</t>
+  </si>
+  <si>
+    <t>32249 / 65125</t>
+  </si>
+  <si>
+    <t>32056 / 59605</t>
+  </si>
+  <si>
+    <t>65193 / 99773</t>
+  </si>
+  <si>
+    <t>11478 / 44864</t>
+  </si>
+  <si>
+    <t>32250 / 65714</t>
+  </si>
+  <si>
+    <t>32009 / 41486</t>
+  </si>
+  <si>
+    <t>32271 / 42160</t>
+  </si>
+  <si>
+    <t>32348 / 42165</t>
+  </si>
+  <si>
+    <t>6629 / 42149</t>
+  </si>
+  <si>
+    <t>28973 / 32555</t>
+  </si>
+  <si>
+    <t>3894</t>
+  </si>
+  <si>
+    <t>3703</t>
+  </si>
+  <si>
+    <t>32000</t>
+  </si>
+  <si>
+    <t>1680 / 32532</t>
+  </si>
+  <si>
+    <t>2744 / 28670</t>
+  </si>
+  <si>
+    <t>32531 / 40344</t>
+  </si>
+  <si>
+    <t>3700</t>
+  </si>
+  <si>
+    <t>6541</t>
+  </si>
+  <si>
+    <t>3702</t>
+  </si>
+  <si>
+    <t>32018</t>
+  </si>
+  <si>
+    <t>67696</t>
+  </si>
+  <si>
+    <t>17114</t>
+  </si>
+  <si>
+    <t>49132 / 85943</t>
+  </si>
+  <si>
+    <t>3895</t>
+  </si>
+  <si>
+    <t>2730</t>
+  </si>
+  <si>
+    <t>3701</t>
+  </si>
+  <si>
+    <t>18942 / 60578</t>
+  </si>
+  <si>
+    <t>24121 / 43038</t>
+  </si>
+  <si>
+    <t>53504 / 64781</t>
+  </si>
+  <si>
+    <t>3743 / 4296</t>
+  </si>
+  <si>
+    <t>67491</t>
+  </si>
+  <si>
+    <t>3711</t>
+  </si>
+  <si>
+    <t>65127 / 87761</t>
+  </si>
+  <si>
+    <t>31511 / 98585</t>
+  </si>
+  <si>
+    <t>57519</t>
+  </si>
+  <si>
+    <t>55981</t>
+  </si>
+  <si>
+    <t>20896 / 55981</t>
+  </si>
+  <si>
+    <t>30391</t>
+  </si>
+  <si>
+    <t>56904</t>
+  </si>
+  <si>
+    <t>4185 / 49750</t>
+  </si>
+  <si>
+    <t>2815 / 70162</t>
+  </si>
+  <si>
+    <t>42610</t>
+  </si>
+  <si>
+    <t>56903</t>
+  </si>
+  <si>
+    <t>61254</t>
+  </si>
+  <si>
+    <t>39370</t>
+  </si>
+  <si>
+    <t>52629</t>
+  </si>
+  <si>
+    <t>79851</t>
+  </si>
+  <si>
+    <t>71708</t>
+  </si>
+  <si>
+    <t>2723 / 2958</t>
+  </si>
+  <si>
+    <t>73763</t>
+  </si>
+  <si>
+    <t>73764</t>
+  </si>
+  <si>
+    <t>6588 / 28698</t>
+  </si>
+  <si>
+    <t>61927</t>
+  </si>
+  <si>
+    <t>37774 / 92693</t>
+  </si>
+  <si>
+    <t>61904 / 65767</t>
+  </si>
+  <si>
+    <t>18404 / 74741</t>
+  </si>
+  <si>
+    <t>71710</t>
+  </si>
+  <si>
+    <t>73507</t>
+  </si>
+  <si>
+    <t>61100 / 95283</t>
+  </si>
+  <si>
+    <t>2378 / 73090</t>
+  </si>
+  <si>
+    <t>41669 / 48267</t>
+  </si>
+  <si>
+    <t>6536 / 40146</t>
+  </si>
+  <si>
+    <t>42193 / 92907</t>
+  </si>
+  <si>
+    <t>42191 / 63869</t>
+  </si>
+  <si>
+    <t>32016 / 42128</t>
+  </si>
+  <si>
+    <t>32192 / 42156</t>
+  </si>
+  <si>
+    <t>32034 / 42134</t>
+  </si>
+  <si>
+    <t>32015 / 41488</t>
+  </si>
+  <si>
+    <t>32014 / 42155</t>
+  </si>
+  <si>
+    <t>14925 / 57539</t>
+  </si>
+  <si>
+    <t>32065 / 58486</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>LEGO Macaroni  Pipe LEGO Round Brick Elbow 90 Degree Bend (25214)</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1324,11 +1889,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1351,37 +1923,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -13476,6 +14036,20 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29212252-51AB-4345-80DF-6D6F03941C56}" name="Table1" displayName="Table1" ref="A1:B171" totalsRowShown="0">
+  <autoFilter ref="A1:B171" xr:uid="{29212252-51AB-4345-80DF-6D6F03941C56}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B171">
+    <sortCondition ref="A1:A171"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{03C24576-FF90-4C8C-B79A-A4382BAE9D1D}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{17E68D6B-12EF-46F4-A67E-118D7652FBF1}" name="Part Number" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13800,7 +14374,7 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13955,7 +14529,9 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13973,19 +14549,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
@@ -14039,23 +14615,23 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="23"/>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
@@ -14109,19 +14685,19 @@
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14143,7 +14719,9 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14161,19 +14739,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
@@ -14197,11 +14775,11 @@
         <v>66</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="23"/>
       <c r="I3" s="1" t="s">
         <v>68</v>
@@ -14233,11 +14811,11 @@
         <v>73</v>
       </c>
       <c r="D5" s="23"/>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="5"/>
       <c r="I5" s="1" t="s">
         <v>76</v>
@@ -14265,15 +14843,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="23"/>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="23"/>
       <c r="K7" s="1" t="s">
         <v>5</v>
@@ -14309,11 +14887,11 @@
         <v>5</v>
       </c>
       <c r="H9" s="23"/>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14334,9 +14912,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14353,22 +14933,22 @@
     <col min="11" max="11" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-    </row>
-    <row r="2" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -14381,24 +14961,24 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-    </row>
-    <row r="4" spans="1:12" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -14410,84 +14990,81 @@
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
-      <c r="L4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-    </row>
-    <row r="6" spans="1:12" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+    </row>
+    <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="48"/>
-    </row>
-    <row r="7" spans="1:12" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-    </row>
-    <row r="8" spans="1:12" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="48"/>
-    </row>
-    <row r="9" spans="1:12" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A9:K9"/>
@@ -14509,9 +15086,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14528,23 +15107,23 @@
     <col min="11" max="11" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-    </row>
-    <row r="2" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+    </row>
+    <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="17"/>
       <c r="D2" s="15"/>
@@ -14554,11 +15133,10 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="48"/>
-    </row>
-    <row r="3" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>104</v>
       </c>
       <c r="B3" s="23"/>
@@ -14566,90 +15144,88 @@
         <v>97</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+    <row r="4" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="46"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="23"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="23"/>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+    <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="3"/>
       <c r="H6" s="8"/>
       <c r="I6" s="3"/>
       <c r="J6" s="23"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="48"/>
-    </row>
-    <row r="7" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1" t="s">
         <v>102</v>
       </c>
       <c r="J7" s="23"/>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+    <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -14657,27 +15233,26 @@
       <c r="H8" s="23"/>
       <c r="I8" s="3"/>
       <c r="J8" s="23"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="48"/>
-    </row>
-    <row r="9" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="23"/>
       <c r="I9" s="1" t="s">
         <v>91</v>
       </c>
       <c r="J9" s="23"/>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="35" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14703,9 +15278,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14722,27 +15299,27 @@
     <col min="11" max="11" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-    </row>
-    <row r="2" spans="1:12" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -14750,27 +15327,27 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
-    </row>
-    <row r="4" spans="1:12" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
+    </row>
+    <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -14780,25 +15357,25 @@
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="23"/>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="23"/>
@@ -14809,27 +15386,26 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="48"/>
-    </row>
-    <row r="7" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -14840,10 +15416,9 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="48"/>
-    </row>
-    <row r="9" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="23"/>
@@ -14888,9 +15463,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14907,22 +15484,22 @@
     <col min="11" max="11" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+    </row>
+    <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -14934,18 +15511,17 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="17"/>
-      <c r="L2" s="48"/>
-    </row>
-    <row r="3" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="7"/>
       <c r="I3" s="1" t="s">
         <v>115</v>
@@ -14955,7 +15531,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -14967,26 +15543,25 @@
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="21"/>
       <c r="K5" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -14998,18 +15573,17 @@
       <c r="I6" s="18"/>
       <c r="J6" s="21"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="48"/>
-    </row>
-    <row r="7" spans="1:12" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="21"/>
       <c r="I7" s="14" t="s">
         <v>120</v>
@@ -15019,7 +15593,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -15031,24 +15605,23 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="48"/>
-    </row>
-    <row r="9" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15070,9 +15643,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15089,22 +15664,22 @@
     <col min="11" max="11" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-    </row>
-    <row r="2" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+    </row>
+    <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -15117,8 +15692,8 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="9"/>
@@ -15142,8 +15717,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="3"/>
       <c r="D4" s="23"/>
@@ -15154,13 +15729,12 @@
       <c r="I4" s="8"/>
       <c r="J4" s="23"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
@@ -15181,8 +15755,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+    <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="8"/>
       <c r="D6" s="23"/>
@@ -15193,10 +15767,9 @@
       <c r="I6" s="8"/>
       <c r="J6" s="23"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="48"/>
-    </row>
-    <row r="7" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="9"/>
@@ -15220,7 +15793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="8"/>
@@ -15232,9 +15805,8 @@
       <c r="I8" s="8"/>
       <c r="J8" s="23"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="48"/>
-    </row>
-    <row r="9" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>154</v>
       </c>
@@ -15274,9 +15846,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15293,23 +15867,23 @@
     <col min="11" max="11" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-    </row>
-    <row r="2" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -15321,27 +15895,27 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="23"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-    </row>
-    <row r="4" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -15352,20 +15926,19 @@
       <c r="I4" s="3"/>
       <c r="J4" s="8"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="9"/>
       <c r="I5" s="1" t="s">
         <v>128</v>
@@ -15375,8 +15948,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+    <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -15387,29 +15960,28 @@
       <c r="I6" s="3"/>
       <c r="J6" s="6"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="48"/>
-    </row>
-    <row r="7" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="1:12" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -15420,26 +15992,25 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="48"/>
-    </row>
-    <row r="9" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15459,13 +16030,1400 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEFA42C-F8A7-4B65-9C5B-0E25E4F878CB}">
+  <dimension ref="A1:B171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="50">
+        <v>59443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>263</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="50" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" s="50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" s="50" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="50" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="50" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="50" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" s="50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="50" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>255</v>
+      </c>
+      <c r="B77" s="50" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="50" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="50">
+        <v>32064</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="50" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="50" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89" s="50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>257</v>
+      </c>
+      <c r="B90" s="50" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" s="50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93" s="50" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" s="50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="50" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="50" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="50" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" s="50" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" s="50" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" s="50">
+        <v>41678</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="50" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" s="50" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" s="50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>235</v>
+      </c>
+      <c r="B108" s="50" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>265</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="50" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>85</v>
+      </c>
+      <c r="B113" s="50" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" s="50" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" s="50" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="50" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>110</v>
+      </c>
+      <c r="B117" s="50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" s="50" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>106</v>
+      </c>
+      <c r="B119" s="50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>223</v>
+      </c>
+      <c r="B120" s="50">
+        <v>94925</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>221</v>
+      </c>
+      <c r="B121" s="50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>32</v>
+      </c>
+      <c r="B122" s="50" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" s="50" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>151</v>
+      </c>
+      <c r="B124" s="50" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>209</v>
+      </c>
+      <c r="B125" s="50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>233</v>
+      </c>
+      <c r="B126" s="50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" s="50" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>271</v>
+      </c>
+      <c r="B128" s="50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>268</v>
+      </c>
+      <c r="B129" s="50" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>269</v>
+      </c>
+      <c r="B130" s="50" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" s="50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>230</v>
+      </c>
+      <c r="B132" s="50" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>436</v>
+      </c>
+      <c r="B133" s="50" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>121</v>
+      </c>
+      <c r="B134" s="50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>249</v>
+      </c>
+      <c r="B135" s="50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>34</v>
+      </c>
+      <c r="B136" s="50" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>47</v>
+      </c>
+      <c r="B137" s="50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>51</v>
+      </c>
+      <c r="B138" s="50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" s="50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>48</v>
+      </c>
+      <c r="B140" s="50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>232</v>
+      </c>
+      <c r="B141" s="50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>133</v>
+      </c>
+      <c r="B142" s="50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" s="50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144" s="50"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>63</v>
+      </c>
+      <c r="B145" s="50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>264</v>
+      </c>
+      <c r="B146" s="50">
+        <v>992185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>252</v>
+      </c>
+      <c r="B147" s="50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="50" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>234</v>
+      </c>
+      <c r="B149" s="50" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>45</v>
+      </c>
+      <c r="B150" s="50" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>44</v>
+      </c>
+      <c r="B151" s="50" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="50" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>212</v>
+      </c>
+      <c r="B153" s="50" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>231</v>
+      </c>
+      <c r="B154" s="50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>270</v>
+      </c>
+      <c r="B155" s="50" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>114</v>
+      </c>
+      <c r="B156" s="50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157" s="50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>50</v>
+      </c>
+      <c r="B158" s="50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>120</v>
+      </c>
+      <c r="B159" s="50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>262</v>
+      </c>
+      <c r="B160" s="50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>260</v>
+      </c>
+      <c r="B161" s="50" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>53</v>
+      </c>
+      <c r="B162" s="50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>119</v>
+      </c>
+      <c r="B163" s="50" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>259</v>
+      </c>
+      <c r="B164" s="50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>258</v>
+      </c>
+      <c r="B165" s="50" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>261</v>
+      </c>
+      <c r="B166" s="50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>118</v>
+      </c>
+      <c r="B167" s="50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" s="50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>129</v>
+      </c>
+      <c r="B169" s="50">
+        <v>27938</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>29</v>
+      </c>
+      <c r="B170" s="50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>266</v>
+      </c>
+      <c r="B171" s="50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63321385-22F9-45A9-A518-8A9492160C44}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15530,179 +17488,6 @@
     <row r="12" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701EE3AB-E048-4E8B-9132-37A5990F3430}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -15718,7 +17503,9 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15736,19 +17523,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -15802,26 +17589,26 @@
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -15834,17 +17621,17 @@
       <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="9"/>
       <c r="I7" s="1" t="s">
         <v>5</v>
@@ -15855,7 +17642,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="8"/>
       <c r="D8" s="23"/>
@@ -15868,7 +17655,7 @@
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="9"/>
@@ -15880,13 +17667,13 @@
         <v>5</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -15904,6 +17691,179 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701EE3AB-E048-4E8B-9132-37A5990F3430}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3385826771653544" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9700B616-B28D-4095-B680-FE0B44CDE101}">
   <sheetPr>
@@ -15911,7 +17871,9 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15929,19 +17891,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -15957,7 +17919,7 @@
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="23"/>
@@ -15973,14 +17935,14 @@
         <v>207</v>
       </c>
       <c r="H3" s="21"/>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="8"/>
       <c r="D4" s="23"/>
@@ -15993,7 +17955,7 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="23"/>
@@ -16018,7 +17980,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="8"/>
       <c r="D6" s="23"/>
@@ -16031,7 +17993,7 @@
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="35" t="s">
         <v>154</v>
       </c>
       <c r="B7" s="9"/>
@@ -16043,13 +18005,13 @@
         <v>154</v>
       </c>
       <c r="F7" s="23"/>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
@@ -16065,17 +18027,17 @@
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="6"/>
       <c r="I9" s="1" t="s">
         <v>154</v>
@@ -16107,7 +18069,9 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16125,19 +18089,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
@@ -16153,7 +18117,7 @@
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="9"/>
@@ -16178,7 +18142,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="8"/>
       <c r="D4" s="23"/>
@@ -16191,7 +18155,7 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="9"/>
@@ -16216,7 +18180,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -16229,7 +18193,7 @@
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="23"/>
@@ -16254,7 +18218,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -16267,7 +18231,7 @@
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="9"/>
@@ -16283,11 +18247,11 @@
         <v>5</v>
       </c>
       <c r="H9" s="23"/>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -16308,7 +18272,9 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16326,19 +18292,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -16354,24 +18320,24 @@
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -16384,21 +18350,21 @@
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="40" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
@@ -16414,23 +18380,23 @@
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
@@ -16462,11 +18428,11 @@
         <v>33</v>
       </c>
       <c r="H9" s="23"/>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -16493,7 +18459,9 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16511,19 +18479,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -16695,7 +18663,9 @@
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16713,19 +18683,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -16741,7 +18711,7 @@
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:15" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="23"/>
@@ -16749,11 +18719,11 @@
         <v>214</v>
       </c>
       <c r="D3" s="20"/>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="21"/>
       <c r="I3" s="1" t="s">
         <v>44</v>
@@ -16764,7 +18734,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -16777,7 +18747,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="35" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="9"/>
@@ -16802,7 +18772,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -16815,7 +18785,7 @@
       <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:15" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="35" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="9"/>
@@ -16841,7 +18811,7 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="8"/>
       <c r="D8" s="23"/>
@@ -16854,11 +18824,11 @@
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:15" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -16868,11 +18838,11 @@
         <v>50</v>
       </c>
       <c r="H9" s="23"/>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -16895,7 +18865,9 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16913,19 +18885,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -16979,11 +18951,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="23"/>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -17002,9 +18974,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="46"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -17015,15 +18987,15 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1" t="s">
         <v>5</v>
@@ -17038,7 +19010,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -17051,19 +19023,19 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="5"/>
       <c r="K9" s="1" t="s">
         <v>5</v>
@@ -17089,7 +19061,9 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17107,19 +19081,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
@@ -17143,11 +19117,11 @@
         <v>37</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="21"/>
       <c r="I3" s="1" t="s">
         <v>23</v>
@@ -17171,11 +19145,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="21"/>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -17185,11 +19159,11 @@
         <v>53</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
@@ -17213,11 +19187,11 @@
         <v>42</v>
       </c>
       <c r="D7" s="23"/>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="21"/>
       <c r="I7" s="1" t="s">
         <v>55</v>
@@ -17241,23 +19215,23 @@
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="108" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
